--- a/data-raw/metadata/metadata_BEXLTALL.xlsx
+++ b/data-raw/metadata/metadata_BEXLTALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/672a29ec829a16e8/Dokumenter/GitHub/ProjCore/px/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{95AD3770-CFF6-4475-9029-B56B8E5608FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC43F236-33D2-4363-859F-1D3B58B40C84}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{95AD3770-CFF6-4475-9029-B56B8E5608FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95CC5B97-1342-4BFF-A4D8-E86C02E72A37}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables_MD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="295">
   <si>
     <t>position</t>
   </si>
@@ -898,6 +898,15 @@
   </si>
   <si>
     <t>no of years</t>
+  </si>
+  <si>
+    <t>antal</t>
+  </si>
+  <si>
+    <t>amerlassusaat</t>
+  </si>
+  <si>
+    <t>FIGURES</t>
   </si>
 </sst>
 </file>
@@ -962,10 +971,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1289,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1545,6 +1550,23 @@
       </c>
       <c r="L8" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/metadata/metadata_BEXLTALL.xlsx
+++ b/data-raw/metadata/metadata_BEXLTALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\px\data-raw\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/672a29ec829a16e8/Dokumenter/GitHub/ProjCore/px/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CCC2D3-1A8E-44B3-94BD-6033C059658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{79CCC2D3-1A8E-44B3-94BD-6033C059658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADC63F4B-5784-4EC3-BA17-4AD0BABB5A2B}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="2895" windowWidth="19875" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables_MD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="285">
   <si>
     <t>position</t>
   </si>
@@ -534,18 +534,6 @@
     <t>95</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>Men</t>
   </si>
   <si>
@@ -735,9 +723,6 @@
     <t>NEXT_UPDATE</t>
   </si>
   <si>
-    <t>2023022210 09:00</t>
-  </si>
-  <si>
     <t>LINK_da</t>
   </si>
   <si>
@@ -889,6 +874,9 @@
   </si>
   <si>
     <t>FIGURES</t>
+  </si>
+  <si>
+    <t>20230222 09:00</t>
   </si>
 </sst>
 </file>
@@ -938,7 +926,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,8 +946,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1283,25 +1277,25 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1397,7 +1391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -1426,7 +1420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1464,15 +1458,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -1493,7 +1487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +1495,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -1513,16 +1507,16 @@
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1551,21 +1545,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -1575,23 +1569,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1610,11 +1604,11 @@
       <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1630,11 +1624,12 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1645,21 +1640,22 @@
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="3">
+        <v>248</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -1670,16 +1666,17 @@
       <c r="E4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -1690,16 +1687,17 @@
       <c r="E5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1710,11 +1708,12 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1730,11 +1729,12 @@
       <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1750,11 +1750,12 @@
       <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1770,11 +1771,12 @@
       <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1790,11 +1792,12 @@
       <c r="E10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1810,11 +1813,12 @@
       <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1830,11 +1834,12 @@
       <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1850,11 +1855,12 @@
       <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1870,11 +1876,12 @@
       <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1890,11 +1897,12 @@
       <c r="E15" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1910,11 +1918,12 @@
       <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1930,11 +1939,12 @@
       <c r="E17" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1950,11 +1960,12 @@
       <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -1970,11 +1981,12 @@
       <c r="E19" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1990,11 +2002,12 @@
       <c r="E20" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2010,11 +2023,12 @@
       <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2030,11 +2044,12 @@
       <c r="E22" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2050,11 +2065,12 @@
       <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2070,11 +2086,12 @@
       <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -2090,11 +2107,12 @@
       <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2110,11 +2128,12 @@
       <c r="E26" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2130,11 +2149,12 @@
       <c r="E27" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2150,11 +2170,12 @@
       <c r="E28" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2170,11 +2191,12 @@
       <c r="E29" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2190,11 +2212,12 @@
       <c r="E30" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2210,11 +2233,12 @@
       <c r="E31" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2230,11 +2254,12 @@
       <c r="E32" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2250,11 +2275,12 @@
       <c r="E33" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2270,11 +2296,12 @@
       <c r="E34" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2290,11 +2317,12 @@
       <c r="E35" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2310,11 +2338,12 @@
       <c r="E36" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2330,11 +2359,12 @@
       <c r="E37" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2350,11 +2380,12 @@
       <c r="E38" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2370,11 +2401,12 @@
       <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2390,11 +2422,12 @@
       <c r="E40" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2410,11 +2443,12 @@
       <c r="E41" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2430,11 +2464,12 @@
       <c r="E42" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2450,11 +2485,12 @@
       <c r="E43" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -2470,11 +2506,12 @@
       <c r="E44" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2490,11 +2527,12 @@
       <c r="E45" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2510,11 +2548,12 @@
       <c r="E46" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2530,11 +2569,12 @@
       <c r="E47" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -2550,11 +2590,12 @@
       <c r="E48" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -2570,11 +2611,12 @@
       <c r="E49" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -2590,11 +2632,12 @@
       <c r="E50" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2610,11 +2653,12 @@
       <c r="E51" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -2630,11 +2674,12 @@
       <c r="E52" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2650,11 +2695,12 @@
       <c r="E53" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2670,11 +2716,12 @@
       <c r="E54" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2690,11 +2737,12 @@
       <c r="E55" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2710,11 +2758,12 @@
       <c r="E56" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2730,11 +2779,12 @@
       <c r="E57" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -2750,11 +2800,12 @@
       <c r="E58" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -2770,11 +2821,12 @@
       <c r="E59" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -2790,11 +2842,12 @@
       <c r="E60" t="s">
         <v>127</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2810,11 +2863,12 @@
       <c r="E61" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -2830,11 +2884,12 @@
       <c r="E62" t="s">
         <v>129</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2850,11 +2905,12 @@
       <c r="E63" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -2870,11 +2926,12 @@
       <c r="E64" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -2890,11 +2947,12 @@
       <c r="E65" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -2910,11 +2968,12 @@
       <c r="E66" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2930,11 +2989,12 @@
       <c r="E67" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2950,11 +3010,12 @@
       <c r="E68" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2970,11 +3031,12 @@
       <c r="E69" t="s">
         <v>136</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2990,11 +3052,12 @@
       <c r="E70" t="s">
         <v>137</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3010,11 +3073,12 @@
       <c r="E71" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -3030,11 +3094,12 @@
       <c r="E72" t="s">
         <v>139</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3050,11 +3115,12 @@
       <c r="E73" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3070,11 +3136,12 @@
       <c r="E74" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -3090,11 +3157,12 @@
       <c r="E75" t="s">
         <v>142</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3110,11 +3178,12 @@
       <c r="E76" t="s">
         <v>143</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3130,11 +3199,12 @@
       <c r="E77" t="s">
         <v>144</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3150,11 +3220,12 @@
       <c r="E78" t="s">
         <v>145</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -3170,11 +3241,12 @@
       <c r="E79" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -3190,11 +3262,12 @@
       <c r="E80" t="s">
         <v>147</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3210,11 +3283,12 @@
       <c r="E81" t="s">
         <v>148</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81">
         <v>74</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -3230,11 +3304,12 @@
       <c r="E82" t="s">
         <v>149</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -3250,11 +3325,12 @@
       <c r="E83" t="s">
         <v>150</v>
       </c>
-      <c r="F83" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>76</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>76</v>
       </c>
@@ -3270,11 +3346,12 @@
       <c r="E84" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84">
         <v>77</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -3290,11 +3367,12 @@
       <c r="E85" t="s">
         <v>152</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85">
         <v>78</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>76</v>
       </c>
@@ -3310,11 +3388,12 @@
       <c r="E86" t="s">
         <v>153</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -3330,11 +3409,12 @@
       <c r="E87" t="s">
         <v>154</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -3350,11 +3430,12 @@
       <c r="E88" t="s">
         <v>155</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88">
         <v>81</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>76</v>
       </c>
@@ -3370,11 +3451,12 @@
       <c r="E89" t="s">
         <v>156</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -3390,11 +3472,12 @@
       <c r="E90" t="s">
         <v>157</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -3410,11 +3493,12 @@
       <c r="E91" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -3430,11 +3514,12 @@
       <c r="E92" t="s">
         <v>159</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -3450,11 +3535,12 @@
       <c r="E93" t="s">
         <v>160</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>86</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>76</v>
       </c>
@@ -3470,11 +3556,12 @@
       <c r="E94" t="s">
         <v>161</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>87</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>76</v>
       </c>
@@ -3490,11 +3577,12 @@
       <c r="E95" t="s">
         <v>162</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>76</v>
       </c>
@@ -3510,11 +3598,12 @@
       <c r="E96" t="s">
         <v>163</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>89</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -3530,11 +3619,12 @@
       <c r="E97" t="s">
         <v>164</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>90</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -3550,11 +3640,12 @@
       <c r="E98" t="s">
         <v>165</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -3570,11 +3661,12 @@
       <c r="E99" t="s">
         <v>166</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -3590,11 +3682,12 @@
       <c r="E100" t="s">
         <v>167</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>93</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -3610,11 +3703,12 @@
       <c r="E101" t="s">
         <v>168</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>94</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>76</v>
       </c>
@@ -3630,276 +3724,202 @@
       <c r="E102" t="s">
         <v>169</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>95</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="B103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" t="s">
         <v>170</v>
       </c>
-      <c r="C103" t="s">
-        <v>170</v>
-      </c>
-      <c r="D103" t="s">
-        <v>170</v>
-      </c>
-      <c r="E103" t="s">
-        <v>170</v>
-      </c>
-      <c r="F103" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" t="s">
+        <v>246</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>241</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
         <v>171</v>
       </c>
-      <c r="C104" t="s">
-        <v>171</v>
-      </c>
-      <c r="D104" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" t="s">
-        <v>171</v>
-      </c>
-      <c r="F104" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" t="s">
+        <v>247</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
         <v>172</v>
-      </c>
-      <c r="C105" t="s">
-        <v>172</v>
-      </c>
-      <c r="D105" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" t="s">
-        <v>172</v>
-      </c>
-      <c r="F105" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106" t="s">
-        <v>173</v>
       </c>
       <c r="C106" t="s">
         <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E106" t="s">
-        <v>173</v>
-      </c>
-      <c r="F106" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="E107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="3">
+        <v>49</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" t="s">
+        <v>182</v>
+      </c>
+      <c r="F108">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>246</v>
-      </c>
-      <c r="B108" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" t="s">
-        <v>174</v>
-      </c>
-      <c r="D108" t="s">
-        <v>248</v>
-      </c>
-      <c r="E108" t="s">
-        <v>251</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" t="s">
+        <v>186</v>
+      </c>
+      <c r="F109">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>246</v>
-      </c>
-      <c r="B109" t="s">
-        <v>245</v>
-      </c>
-      <c r="C109" t="s">
-        <v>175</v>
-      </c>
-      <c r="D109" t="s">
-        <v>249</v>
-      </c>
-      <c r="E109" t="s">
-        <v>252</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="G109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" t="s">
+        <v>189</v>
+      </c>
+      <c r="E110" t="s">
+        <v>190</v>
+      </c>
+      <c r="F110">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" t="s">
-        <v>176</v>
-      </c>
-      <c r="C110" t="s">
-        <v>177</v>
-      </c>
-      <c r="D110" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" t="s">
-        <v>179</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
-      </c>
-      <c r="F111" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>51</v>
-      </c>
-      <c r="B112" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" t="s">
-        <v>184</v>
-      </c>
-      <c r="D112" t="s">
-        <v>185</v>
-      </c>
-      <c r="E112" t="s">
-        <v>186</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" t="s">
-        <v>187</v>
-      </c>
-      <c r="C113" t="s">
-        <v>188</v>
-      </c>
-      <c r="D113" t="s">
-        <v>189</v>
-      </c>
-      <c r="E113" t="s">
-        <v>190</v>
-      </c>
-      <c r="F113" s="3">
-        <v>2</v>
-      </c>
-      <c r="G113" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" t="s">
-        <v>191</v>
-      </c>
-      <c r="C114" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" t="s">
-        <v>193</v>
-      </c>
-      <c r="E114" t="s">
-        <v>194</v>
-      </c>
-      <c r="F114" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" t="s">
-        <v>195</v>
-      </c>
-      <c r="C115" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" t="s">
         <v>56</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F111">
         <v>4</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G111" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3913,332 +3933,332 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
         <v>275</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>277</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>282</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>283</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B40" t="s">
         <v>260</v>
-      </c>
-      <c r="B38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>262</v>
-      </c>
-      <c r="B40" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/metadata_BEXLTALL.xlsx
+++ b/data-raw/metadata/metadata_BEXLTALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/672a29ec829a16e8/Dokumenter/GitHub/ProjCore/px/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{79CCC2D3-1A8E-44B3-94BD-6033C059658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADC63F4B-5784-4EC3-BA17-4AD0BABB5A2B}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{79CCC2D3-1A8E-44B3-94BD-6033C059658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB47A784-CBF9-4162-97DF-259F84945E4E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables_MD" sheetId="1" r:id="rId1"/>
@@ -828,9 +828,6 @@
     <t>CHARSET</t>
   </si>
   <si>
-    <t>utf-8</t>
-  </si>
-  <si>
     <t>AXIS_VERSION</t>
   </si>
   <si>
@@ -877,6 +874,9 @@
   </si>
   <si>
     <t>20230222 09:00</t>
+  </si>
+  <si>
+    <t>ANSI</t>
   </si>
 </sst>
 </file>
@@ -944,10 +944,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1399,7 +1395,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -1495,7 +1491,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -1550,16 +1546,16 @@
         <v>193</v>
       </c>
       <c r="C9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
         <v>281</v>
       </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>282</v>
-      </c>
-      <c r="F9" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -1571,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3932,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3954,12 +3950,12 @@
         <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2">
         <v>2000</v>
@@ -3967,26 +3963,26 @@
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
         <v>270</v>
-      </c>
-      <c r="B4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
         <v>272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
         <v>274</v>
-      </c>
-      <c r="B6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -4183,7 +4179,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
         <v>231</v>
@@ -4194,12 +4190,12 @@
         <v>232</v>
       </c>
       <c r="B32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -4207,7 +4203,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34">
         <v>0</v>
